--- a/Code/Wind/LowerBounds.xlsx
+++ b/Code/Wind/LowerBounds.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Dokumente\A_Uni\HiWi\ArticleSubgradient\Code\Wind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F9DFCC2-C07F-419C-B936-B15B32A82BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83F8C80-F33D-4082-99DF-C913CA4A9E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="100EX_Results_Lower_Bounds" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Abfrage - 100EX_Results_Lower_Bounds" description="Verbindung mit der Abfrage '100EX_Results_Lower_Bounds' in der Arbeitsmappe." type="5" refreshedVersion="7" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Abfrage - 100EX_Results_Lower_Bounds" description="Verbindung mit der Abfrage '100EX_Results_Lower_Bounds' in der Arbeitsmappe." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=100EX_Results_Lower_Bounds;Extended Properties=&quot;&quot;" command="SELECT * FROM [100EX_Results_Lower_Bounds]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="29">
   <si>
     <t>Column1</t>
   </si>
@@ -125,12 +125,21 @@
   </si>
   <si>
     <t>Av QP:</t>
+  </si>
+  <si>
+    <t>Av IR:</t>
+  </si>
+  <si>
+    <t>Av IR 8:</t>
+  </si>
+  <si>
+    <t>Av AP:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -194,7 +203,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExterneDaten_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="12">
     <queryTableFields count="11">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
@@ -214,20 +223,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="_100EX_Results_Lower_Bounds" displayName="_100EX_Results_Lower_Bounds" ref="A1:K17" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:K17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="_100EX_Results_Lower_Bounds" displayName="_100EX_Results_Lower_Bounds" ref="A1:K17" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:K17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" uniqueName="1" name="Column1" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="Column2" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="Column3" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="3"/>
-    <tableColumn id="5" uniqueName="5" name="Column42" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="Column5" queryTableFieldId="6" dataDxfId="2"/>
-    <tableColumn id="7" uniqueName="7" name="Column6" queryTableFieldId="7" dataDxfId="1"/>
-    <tableColumn id="8" uniqueName="8" name="Column62" queryTableFieldId="8"/>
-    <tableColumn id="9" uniqueName="9" name="Column7" queryTableFieldId="9"/>
-    <tableColumn id="10" uniqueName="10" name="Column8" queryTableFieldId="10" dataDxfId="0"/>
-    <tableColumn id="11" uniqueName="11" name="Column9" queryTableFieldId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Column2" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Column3" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="Column42" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="Column5" queryTableFieldId="6" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="Column6" queryTableFieldId="7" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="Column62" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="Column7" queryTableFieldId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="10" name="Column8" queryTableFieldId="10" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="11" name="Column9" queryTableFieldId="11"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -529,11 +538,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -685,6 +694,9 @@
       <c r="K4">
         <v>7.8299999999999995E-2</v>
       </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B5">
@@ -714,6 +726,10 @@
       <c r="K5">
         <v>9.7100000000000006E-2</v>
       </c>
+      <c r="M5">
+        <f>AVERAGE(E2:E17)</f>
+        <v>0.29566249999999999</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -781,6 +797,9 @@
       <c r="K7">
         <v>0.1512</v>
       </c>
+      <c r="M7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B8">
@@ -813,6 +832,10 @@
       <c r="K8">
         <v>9.7600000000000006E-2</v>
       </c>
+      <c r="M8">
+        <f>AVERAGE(E10:E17)</f>
+        <v>0.54459999999999997</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B9">
@@ -877,6 +900,9 @@
       <c r="K10">
         <v>0.1162</v>
       </c>
+      <c r="M10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B11">
@@ -908,6 +934,10 @@
       </c>
       <c r="K11">
         <v>0.44729999999999998</v>
+      </c>
+      <c r="M11">
+        <f>AVERAGE(H10:H12,H14:H16)</f>
+        <v>0.35628333333333334</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -1108,7 +1138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
